--- a/xiangmu/zhongduan/checkout_111.xlsx
+++ b/xiangmu/zhongduan/checkout_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,120 @@
         <v>5</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>176</v>
+      </c>
+      <c r="B30" t="n">
+        <v>111</v>
+      </c>
+      <c r="C30" t="n">
+        <v>367966</v>
+      </c>
+      <c r="D30" t="n">
+        <v>32</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-12-08 04:57:14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>21</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>cool</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>177</v>
+      </c>
+      <c r="B31" t="n">
+        <v>111</v>
+      </c>
+      <c r="C31" t="n">
+        <v>367966</v>
+      </c>
+      <c r="D31" t="n">
+        <v>32</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-12-08 04:57:16</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>heat</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>178</v>
+      </c>
+      <c r="B32" t="n">
+        <v>111</v>
+      </c>
+      <c r="C32" t="n">
+        <v>367966</v>
+      </c>
+      <c r="D32" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-12-08 04:57:18</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>21</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>heat</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
